--- a/selected_Medication_Codesets.xlsx
+++ b/selected_Medication_Codesets.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredanzalone/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199A351B-8538-5B41-BC39-8943551AC521}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7822AEC-E7BB-314D-B3D2-7D9598CB60EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="2780" windowWidth="26840" windowHeight="15940" xr2:uid="{E0AB8976-DFEC-7643-B6FA-6249447E9BF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="140">
   <si>
     <t>Amiodarone gtt</t>
   </si>
@@ -107,9 +105,6 @@
     <t>Phenylephrine gtt</t>
   </si>
   <si>
-    <t>Plasma</t>
-  </si>
-  <si>
     <t>Prednisolone</t>
   </si>
   <si>
@@ -164,12 +159,6 @@
     <t>troleandomycin</t>
   </si>
   <si>
-    <t>ECMO</t>
-  </si>
-  <si>
-    <t>BMI</t>
-  </si>
-  <si>
     <t>codeset_ID</t>
   </si>
   <si>
@@ -182,199 +171,7 @@
     <t>Fluvoxamine</t>
   </si>
   <si>
-    <t>RUCC_2013</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>person_id</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>CHF</t>
-  </si>
-  <si>
-    <t>PVD</t>
-  </si>
-  <si>
-    <t>stroke</t>
-  </si>
-  <si>
-    <t>dementia</t>
-  </si>
-  <si>
-    <t>pulmonary</t>
-  </si>
-  <si>
-    <t>rheumatic</t>
-  </si>
-  <si>
-    <t>PUD</t>
-  </si>
-  <si>
-    <t>liver_mild</t>
-  </si>
-  <si>
-    <t>liversevere</t>
-  </si>
-  <si>
-    <t>diabetes</t>
-  </si>
-  <si>
-    <t>dmcx</t>
-  </si>
-  <si>
-    <t>paralysis</t>
-  </si>
-  <si>
-    <t>renal</t>
-  </si>
-  <si>
-    <t>cancer</t>
-  </si>
-  <si>
-    <t>mets</t>
-  </si>
-  <si>
-    <t>hiv</t>
-  </si>
-  <si>
-    <t>CCI_INDEX</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>Amiodarone_gtt</t>
-  </si>
-  <si>
     <t>dialysis_CRRT_HD</t>
-  </si>
-  <si>
-    <t>Dobutamine_gtt</t>
-  </si>
-  <si>
-    <t>Dopamine_gtt</t>
-  </si>
-  <si>
-    <t>Epinephrine_gtt</t>
-  </si>
-  <si>
-    <t>Esmolol_gtt</t>
-  </si>
-  <si>
-    <t>Inhaled_Nitric_Oxide</t>
-  </si>
-  <si>
-    <t>intravenous_immunoglobulin</t>
-  </si>
-  <si>
-    <t>Isoproterenol_gtt</t>
-  </si>
-  <si>
-    <t>Levosimendan_gtt</t>
-  </si>
-  <si>
-    <t>Lopinavir_Ritonavir_combination</t>
-  </si>
-  <si>
-    <t>Milrinone_gtt</t>
-  </si>
-  <si>
-    <t>Norepinephrine_gtt</t>
-  </si>
-  <si>
-    <t>Phenylephrine_gtt</t>
-  </si>
-  <si>
-    <t>Vasopressin_gtt</t>
-  </si>
-  <si>
-    <t>Prednisone_Methylprednisolone</t>
-  </si>
-  <si>
-    <t>visit_concept_id</t>
-  </si>
-  <si>
-    <t>visit_start_date</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>visit_concept_name</t>
-  </si>
-  <si>
-    <t>AKI_in_hospital</t>
-  </si>
-  <si>
-    <t>Invasive_Ventilation</t>
-  </si>
-  <si>
-    <t>in_death_table</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>age_at_visit_start_in_years_int</t>
-  </si>
-  <si>
-    <t>length_of_stay</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>Ethnicity</t>
-  </si>
-  <si>
-    <t>gender_concept_name</t>
-  </si>
-  <si>
-    <t>smoking_status</t>
-  </si>
-  <si>
-    <t>blood_type</t>
-  </si>
-  <si>
-    <t>Severity_Type</t>
-  </si>
-  <si>
-    <t>InpatientOrED</t>
-  </si>
-  <si>
-    <t>Q_Score</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>readmission</t>
-  </si>
-  <si>
-    <t>RUCA1</t>
-  </si>
-  <si>
-    <t>RUCA2</t>
-  </si>
-  <si>
-    <t>RUCA_Zip_Type</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>Data Type</t>
   </si>
   <si>
     <t>Case statements</t>
@@ -1214,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4FAA71-9EC9-AD4F-B5FB-57EAEAD7E85E}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B47"/>
     </sheetView>
   </sheetViews>
@@ -1228,33 +1025,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2">
         <v>677036102</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="str">
         <f t="shared" ref="E2:E47" si="0">"sum(case when Alias = '" &amp; A2 &amp;"' then 1 else 0 end) " &amp; B2 &amp;","</f>
@@ -1263,16 +1060,16 @@
     </row>
     <row r="3" spans="1:5" ht="17" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4">
         <v>783781794</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="E3" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1284,13 +1081,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2">
         <v>477011432</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1302,13 +1099,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2">
         <v>614076948</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1317,16 +1114,16 @@
     </row>
     <row r="6" spans="1:5" ht="17" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4">
         <v>364083331</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="E6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1338,13 +1135,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2">
         <v>359938251</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1356,13 +1153,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2">
         <v>818210864</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1371,16 +1168,16 @@
     </row>
     <row r="9" spans="1:5" ht="17" thickBot="1">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2">
         <v>158282167</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1392,13 +1189,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2">
         <v>213873961</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1410,13 +1207,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2">
         <v>62297511</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1428,13 +1225,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2">
         <v>41638290</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1446,13 +1243,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="C13" s="2">
         <v>89980583</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1464,13 +1261,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="C14" s="2">
         <v>138921458</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1482,13 +1279,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2">
         <v>820810867</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1497,16 +1294,16 @@
     </row>
     <row r="16" spans="1:5" ht="17" thickBot="1">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="C16" s="2">
         <v>281778289</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1518,13 +1315,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="C17" s="2">
         <v>437105398</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1533,16 +1330,16 @@
     </row>
     <row r="18" spans="1:5" ht="17" thickBot="1">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="C18" s="2">
         <v>762254277</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="E18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1554,13 +1351,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="C19" s="2">
         <v>687120559</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1572,13 +1369,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="C20" s="2">
         <v>726349556</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1590,13 +1387,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="C21" s="2">
         <v>285273342</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1608,13 +1405,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="C22" s="2">
         <v>241604784</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1626,13 +1423,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c r="C23" s="2">
         <v>514747904</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1641,16 +1438,16 @@
     </row>
     <row r="24" spans="1:5" ht="17" thickBot="1">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="C24" s="2">
         <v>499573014</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1662,13 +1459,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="C25" s="2">
         <v>639183738</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1680,13 +1477,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="C26" s="2">
         <v>435362039</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1698,13 +1495,13 @@
         <v>18</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="C27" s="2">
         <v>165611849</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1713,16 +1510,16 @@
     </row>
     <row r="28" spans="1:5" ht="17" thickBot="1">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="C28" s="2">
         <v>480377134</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1734,13 +1531,13 @@
         <v>19</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2">
         <v>302593795</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1749,16 +1546,16 @@
     </row>
     <row r="30" spans="1:5" ht="17" thickBot="1">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="C30" s="2">
         <v>806129676</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1770,13 +1567,13 @@
         <v>20</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="C31" s="2">
         <v>316286704</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1785,16 +1582,16 @@
     </row>
     <row r="32" spans="1:5" ht="17" thickBot="1">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="C32" s="2">
         <v>154909211</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1806,13 +1603,13 @@
         <v>21</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="C33" s="2">
         <v>9512899</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1821,16 +1618,16 @@
     </row>
     <row r="34" spans="1:5" ht="17" thickBot="1">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="C34" s="2">
         <v>673015023</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1842,13 +1639,13 @@
         <v>22</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="C35" s="2">
         <v>226615355</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="E35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1857,16 +1654,16 @@
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1">
       <c r="A36" s="2" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="C36" s="2">
         <v>45129226</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1875,16 +1672,16 @@
     </row>
     <row r="37" spans="1:5" ht="17" thickBot="1">
       <c r="A37" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="C37" s="2">
         <v>804783116</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1893,16 +1690,16 @@
     </row>
     <row r="38" spans="1:5" ht="17" thickBot="1">
       <c r="A38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C38" s="2">
         <v>520650412</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="E38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1911,16 +1708,16 @@
     </row>
     <row r="39" spans="1:5" ht="17" thickBot="1">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="C39" s="2">
         <v>385697886</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="E39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1929,16 +1726,16 @@
     </row>
     <row r="40" spans="1:5" ht="17" thickBot="1">
       <c r="A40" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="C40" s="2">
         <v>719693192</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="E40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1947,16 +1744,16 @@
     </row>
     <row r="41" spans="1:5" ht="17" thickBot="1">
       <c r="A41" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="C41" s="2">
         <v>407316475</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="E41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1965,16 +1762,16 @@
     </row>
     <row r="42" spans="1:5" ht="17" thickBot="1">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="C42" s="2">
         <v>277035864</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="E42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1983,16 +1780,16 @@
     </row>
     <row r="43" spans="1:5" ht="17" thickBot="1">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="C43" s="2">
         <v>785393419</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2001,16 +1798,16 @@
     </row>
     <row r="44" spans="1:5" ht="17" thickBot="1">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="C44" s="2">
         <v>464652890</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="E44" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2019,16 +1816,16 @@
     </row>
     <row r="45" spans="1:5" ht="17" thickBot="1">
       <c r="A45" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="C45" s="2">
         <v>889879486</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="E45" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2037,16 +1834,16 @@
     </row>
     <row r="46" spans="1:5" ht="17" thickBot="1">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2">
         <v>598485099</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="E46" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2055,16 +1852,16 @@
     </row>
     <row r="47" spans="1:5" ht="17" thickBot="1">
       <c r="A47" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="C47" s="2">
         <v>308291386</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="E47" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2125,718 +1922,4 @@
     <tablePart r:id="rId46"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C61369E-79C8-3B4B-A547-D20BE372E105}">
-  <dimension ref="A1:B87"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B87"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>35</v>
-      </c>
-      <c r="B59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>87</v>
-      </c>
-      <c r="B60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>40</v>
-      </c>
-      <c r="B63" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>41</v>
-      </c>
-      <c r="B64" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>88</v>
-      </c>
-      <c r="B65" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>89</v>
-      </c>
-      <c r="B66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>91</v>
-      </c>
-      <c r="B67" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>42</v>
-      </c>
-      <c r="B69" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>93</v>
-      </c>
-      <c r="B70" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>94</v>
-      </c>
-      <c r="B71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>96</v>
-      </c>
-      <c r="B72" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>97</v>
-      </c>
-      <c r="B73" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>98</v>
-      </c>
-      <c r="B74" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>99</v>
-      </c>
-      <c r="B75" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>100</v>
-      </c>
-      <c r="B76" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>101</v>
-      </c>
-      <c r="B77" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>102</v>
-      </c>
-      <c r="B78" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>103</v>
-      </c>
-      <c r="B79" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>104</v>
-      </c>
-      <c r="B80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>105</v>
-      </c>
-      <c r="B81" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>43</v>
-      </c>
-      <c r="B82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>107</v>
-      </c>
-      <c r="B83" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B84" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>109</v>
-      </c>
-      <c r="B85" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>110</v>
-      </c>
-      <c r="B86" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>48</v>
-      </c>
-      <c r="B87" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>